--- a/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="257" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B31A7A0-5C9B-4A17-B136-9F4DBC183EF2}"/>
+  <xr:revisionPtr revIDLastSave="263" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CDB05F-B9E7-4D59-9844-5BB2D8197C19}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="99">
   <si>
     <t>Project ID</t>
   </si>
@@ -179,17 +179,14 @@
     <t>Collaborate and Innovate-UNDP-BFA-00127230</t>
   </si>
   <si>
-    <t>Education servive</t>
-  </si>
-  <si>
-    <t>small entreprises</t>
+    <t>https://open.undp.org/projects/00136271</t>
   </si>
   <si>
     <t xml:space="preserve"> 407 000 pour cette année 
 </t>
   </si>
   <si>
-    <t>Electricity acccess/Productive use of energy</t>
+    <t>Electricity Acccess</t>
   </si>
   <si>
     <t xml:space="preserve">10 874: 5 564 bénéficiaires directs (2 782 bénéficiaires masculins ; 
@@ -206,10 +203,16 @@
     <t>Please specify the number of beneficiaries of an average  centre de sante ruraux</t>
   </si>
   <si>
+    <t>Education servive</t>
+  </si>
+  <si>
     <t>Nombre d'écoles raccordées</t>
   </si>
   <si>
     <t>Please specify the number of benefiuciaries of an average d'écoles</t>
+  </si>
+  <si>
+    <t>small entreprises</t>
   </si>
   <si>
     <t>Nombre de micro et petites entreprises raccordés au mini réseaux</t>
@@ -232,6 +235,9 @@
   </si>
   <si>
     <t>Please specify the number of beneficiaries of an average poste de police de gendramerie et forestiers</t>
+  </si>
+  <si>
+    <t>Electricity acccess/Productive use of energy</t>
   </si>
   <si>
     <t>Nombre de chambre froide et de fabrique de glace fonctionnant à l'énergie solaire installé dans les régions</t>
@@ -972,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B53FB9-5F2C-4AA7-958F-19B1C15DAACF}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1331,7 +1337,7 @@
         <v>45</v>
       </c>
       <c r="D9" s="29">
-        <v>774000</v>
+        <v>407000</v>
       </c>
       <c r="E9" s="38" t="s">
         <v>21</v>
@@ -1368,7 +1374,9 @@
       <c r="B10" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="45" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="29">
         <v>1510000</v>
       </c>
@@ -1420,6 +1428,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1" xr:uid="{CE6A39F7-889B-4E9A-9819-BA923D67C7AB}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{6EF10CB4-FA9C-4137-88F4-142D6A509684}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1441,8 +1450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACD07-0572-43C4-ACDB-D8CF62D50CA2}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1611,7 +1620,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="E5" s="15" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>33</v>
@@ -1635,7 +1644,7 @@
     </row>
     <row r="6" spans="1:20">
       <c r="E6" s="15" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>33</v>
@@ -1722,7 +1731,7 @@
         <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>21</v>
@@ -1742,7 +1751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="45.75">
+    <row r="10" spans="1:20">
       <c r="A10" s="15">
         <v>127230</v>
       </c>
@@ -1753,7 +1762,7 @@
         <v>1510000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" s="23" t="s">
         <v>33</v>
@@ -1808,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1876,7 +1885,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="18"/>
@@ -1892,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="18"/>
     </row>
@@ -1901,7 +1910,7 @@
         <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="12">
         <v>30</v>
@@ -1911,12 +1920,12 @@
         <v>4500</v>
       </c>
       <c r="K4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="E5" s="15" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -1934,10 +1943,10 @@
     </row>
     <row r="6" spans="1:11">
       <c r="E6" s="15" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="6">
         <v>169</v>
@@ -1949,13 +1958,13 @@
     </row>
     <row r="7" spans="1:11" ht="290.25">
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="18"/>
     </row>
@@ -1967,7 +1976,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J8" s="18"/>
     </row>
@@ -1979,13 +1988,13 @@
         <v>44</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -1995,7 +2004,7 @@
         <v>160</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="106.5">
@@ -2009,19 +2018,19 @@
         <v>1510000</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2056,24 +2065,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="46" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2082,27 +2091,27 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="46"/>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -2111,16 +2120,16 @@
         <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="47"/>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -2129,7 +2138,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2138,18 +2147,18 @@
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2158,58 +2167,58 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="49"/>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="49"/>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2224,6 +2233,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2472,34 +2501,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA5807C-1759-4466-BE5D-09E4F9775765}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35954A88-8C57-42E5-B2F5-029E7B06C52D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35954A88-8C57-42E5-B2F5-029E7B06C52D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64551BDE-F944-49F5-A367-13F8C123ECFA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64551BDE-F944-49F5-A367-13F8C123ECFA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA5807C-1759-4466-BE5D-09E4F9775765}"/>
 </file>
--- a/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="263" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10CDB05F-B9E7-4D59-9844-5BB2D8197C19}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84DF391E-06A0-4E65-AD86-228F182020DF}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (3)" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
   <si>
     <t>Project ID</t>
   </si>
@@ -69,10 +69,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -93,6 +90,15 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
+  </si>
+  <si>
     <t>National child project under the GEF African Minigrid Program</t>
   </si>
   <si>
@@ -102,7 +108,8 @@
     <t>Electricity Access</t>
   </si>
   <si>
-    <t xml:space="preserve">nombre de bénéficiaires directs ayant accès à une énergie propre, abordable et durable grâce aux mini réseaux, ventilé par sexe et par segment de clientèle (résidentiel) (nombre de personnes). </t>
+    <t xml:space="preserve">
+number of direct beneficiaries with access to clean, affordable and sustainable energy through mini-grids, broken down by gender and customer segment (residential) (number of people).</t>
   </si>
   <si>
     <t>GEF</t>
@@ -111,25 +118,20 @@
     <t>VF</t>
   </si>
   <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
+    <t>Close the gap on energy access</t>
   </si>
   <si>
     <t>AMP</t>
   </si>
   <si>
+    <t>Solar</t>
+  </si>
+  <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t xml:space="preserve">augmentation de la capacité installée d'énergie renouvelable par technologie (mégawatt crête (MW)) </t>
-  </si>
-  <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
+    <t xml:space="preserve">
+increase in installed renewable energy capacity by technology (peak megawatt (MW)</t>
   </si>
   <si>
     <t>Health Services</t>
@@ -138,9 +140,6 @@
     <t>Number of beneficiaries</t>
   </si>
   <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
     <t>Education Services</t>
   </si>
   <si>
@@ -150,20 +149,21 @@
     <t>Other Energy Services</t>
   </si>
   <si>
-    <t xml:space="preserve">nombre d'emplois primaires directs créés dans le secteur MG, ventilés par sexe, pour [le développement, l'exploitation et l'utilisation productive du mini réseau].  </t>
+    <t xml:space="preserve">
+number of direct primary jobs created in the MG sector, disaggregated by gender, for [the development, operation and productive use of the mini-grid]</t>
   </si>
   <si>
     <t xml:space="preserve">490
 </t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre d'instruments de dérisque politique pour les investissements dans les mini réseaux - dont le développement a été soutenu par le projet - identifiés et approuvés par le gouvernement national.  </t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
+    <t>Number of policy de-risking instruments for investments in mini grids - the development of which was supported by the project - identified and approved by the national government.</t>
+  </si>
+  <si>
+    <t>National Strategy</t>
+  </si>
+  <si>
+    <t>National</t>
   </si>
   <si>
     <t xml:space="preserve">141579
@@ -176,10 +176,43 @@
     <t>https://open.undp.org/projects/00134067</t>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
     <t>Collaborate and Innovate-UNDP-BFA-00127230</t>
   </si>
   <si>
     <t>https://open.undp.org/projects/00136271</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre de bénéficiaires directs ayant accès à une énergie propre, abordable et durable grâce aux mini réseaux, ventilé par sexe et par segment de clientèle (résidentiel) (nombre de personnes). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">augmentation de la capacité installée d'énergie renouvelable par technologie (mégawatt crête (MW)) </t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre d'emplois primaires directs créés dans le secteur MG, ventilés par sexe, pour [le développement, l'exploitation et l'utilisation productive du mini réseau].  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d'instruments de dérisque politique pour les investissements dans les mini réseaux - dont le développement a été soutenu par le projet - identifiés et approuvés par le gouvernement national.  </t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
   </si>
   <si>
     <t xml:space="preserve"> 407 000 pour cette année 
@@ -252,52 +285,67 @@
     <t xml:space="preserve">Please specify the number of beneficiaries  of each chambre froide et de fabrique de glace </t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
-  </si>
-  <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -309,13 +357,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -324,16 +369,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -346,12 +394,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,8 +466,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,42 +490,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -535,23 +566,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -561,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -573,13 +635,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -588,88 +650,98 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B53FB9-5F2C-4AA7-958F-19B1C15DAACF}">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -991,439 +1063,473 @@
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="32.7109375" customWidth="1"/>
     <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45.75">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:21" ht="45.75">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="37" t="s">
+      <c r="K1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="37" t="s">
+      <c r="M1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="37" t="s">
+      <c r="N1" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="26"/>
-    </row>
-    <row r="2" spans="1:20" ht="167.25">
-      <c r="A2" s="29">
+      <c r="T1" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="167.25">
+      <c r="A2" s="28">
         <v>6510</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="28">
+        <v>924566</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30">
+        <v>5564</v>
+      </c>
+      <c r="I2" s="30"/>
+      <c r="J2" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="31"/>
+      <c r="N2" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="47"/>
+    </row>
+    <row r="3" spans="1:21" ht="76.5">
+      <c r="A3" s="28"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="28">
+        <v>0</v>
+      </c>
+      <c r="H3" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="28"/>
+      <c r="L3" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="47"/>
+    </row>
+    <row r="4" spans="1:21" ht="45.75">
+      <c r="A4" s="28"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="27">
+        <v>4500</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="36"/>
+      <c r="L4" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="47"/>
+    </row>
+    <row r="5" spans="1:21" ht="45.75">
+      <c r="A5" s="28"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28">
+        <v>27500</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="36"/>
+      <c r="L5" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="47"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="47"/>
+    </row>
+    <row r="6" spans="1:21" ht="45.75">
+      <c r="A6" s="28"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28">
+        <v>4225</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="28"/>
+      <c r="L6" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="47"/>
+    </row>
+    <row r="7" spans="1:21" ht="152.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="31"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="47"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="47"/>
+    </row>
+    <row r="8" spans="1:21" ht="137.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="29">
-        <v>924566</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="40">
-        <v>5564</v>
-      </c>
-      <c r="I2" s="30"/>
-      <c r="J2" s="41" t="s">
+      <c r="F8" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28">
+        <v>2</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="28"/>
+      <c r="L8" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-    </row>
-    <row r="3" spans="1:20" ht="106.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="38" t="s">
+      <c r="P8" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="29">
-        <v>0</v>
-      </c>
-      <c r="H3" s="32">
-        <v>0.4</v>
-      </c>
-      <c r="I3" s="29"/>
-      <c r="J3" s="41" t="s">
+      <c r="Q8" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="R8" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-    </row>
-    <row r="4" spans="1:20" ht="60.75">
-      <c r="A4" s="29"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="43" t="s">
+      <c r="S8" s="47"/>
+      <c r="T8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="47"/>
+    </row>
+    <row r="9" spans="1:21" ht="45.75">
+      <c r="A9" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="28">
+        <v>407000</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="32">
-        <v>4500</v>
-      </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="41" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28">
+        <v>160</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="47"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="47"/>
+    </row>
+    <row r="10" spans="1:21" ht="45.75">
+      <c r="A10" s="28">
+        <v>127230</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="28">
+        <v>1510000</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-    </row>
-    <row r="5" spans="1:20" ht="60.75">
-      <c r="A5" s="29"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="43" t="s">
+      <c r="F10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="38">
-        <v>27500</v>
-      </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="44"/>
-      <c r="L5" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-    </row>
-    <row r="6" spans="1:20" ht="60.75">
-      <c r="A6" s="29"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="38">
-        <v>4225</v>
-      </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="29"/>
-    </row>
-    <row r="7" spans="1:20" ht="121.5">
-      <c r="A7" s="29"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="29"/>
-      <c r="J7" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="42">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="29"/>
-    </row>
-    <row r="8" spans="1:20" ht="167.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="38">
-        <v>2</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="60.75">
-      <c r="A9" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="28">
+        <v>240</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="29">
-        <v>407000</v>
-      </c>
-      <c r="E9" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="38">
-        <v>160</v>
-      </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-    </row>
-    <row r="10" spans="1:20" ht="60.75">
-      <c r="A10" s="29">
-        <v>127230</v>
-      </c>
-      <c r="B10" s="34" t="s">
+      <c r="M10" s="31"/>
+      <c r="N10" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="29">
-        <v>1510000</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="38">
-        <v>240</v>
-      </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="47"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S28" xr:uid="{6B3037E5-67B4-41BC-ACDE-2751603E6F41}">
+  <dataValidations count="11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P11:Q28" xr:uid="{F512BB5E-6F69-47C8-92B3-1BDE3728A771}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S11:S28" xr:uid="{6B3037E5-67B4-41BC-ACDE-2751603E6F41}">
       <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R28" xr:uid="{F072E137-34FF-4CC2-BFBB-F7C9287D6471}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q10" xr:uid="{F072E137-34FF-4CC2-BFBB-F7C9287D6471}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q28" xr:uid="{AD808809-A551-460D-8AB1-9A402721362A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R11:R28 P2:P10" xr:uid="{AD808809-A551-460D-8AB1-9A402721362A}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P28" xr:uid="{F512BB5E-6F69-47C8-92B3-1BDE3728A771}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O11:O28 N2:N10" xr:uid="{765B724D-16D4-4F35-AE7C-211351DFB2E3}">
+      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O28" xr:uid="{765B724D-16D4-4F35-AE7C-211351DFB2E3}">
-      <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O10" xr:uid="{C2AC054F-17C3-49B6-A182-7315C35251A5}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L10" xr:uid="{77E94788-25F0-4563-849B-F39B57302700}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M10" xr:uid="{6CCAA9F5-AA45-4C15-8602-DBA35E112090}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T10" xr:uid="{836D6EE0-891B-4F79-9A0F-2F35C93E6F87}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S10" xr:uid="{AA428126-A8B4-42BA-A5A7-5693AC963EC6}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R10" xr:uid="{48D49E46-E6FB-4E94-A2FF-D5163DE9D6A8}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1434,11 +1540,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B2132552-4A3A-45F1-82D7-8C0E495F771B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{452AE555-2D57-495F-B866-F01B8964CD51}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E6 E8:E10</xm:sqref>
+          <xm:sqref>E2:E10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1450,7 +1556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5ACD07-0572-43C4-ACDB-D8CF62D50CA2}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1493,290 +1599,290 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="26" t="s">
+      <c r="L1" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="26"/>
+      <c r="T1" s="24"/>
     </row>
     <row r="2" spans="1:20" ht="167.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>6510</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13">
         <v>924566</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="11">
+      <c r="H2" s="9">
         <v>5564</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
       <c r="Q2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="106.5">
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="6">
         <v>0.4</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="E4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="10">
+        <v>4500</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="E5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="4">
+        <v>27500</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="17"/>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="E6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4225</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="121.5">
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="25">
+        <v>0.6</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" t="s">
-        <v>30</v>
-      </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="E4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="23" t="s">
+    </row>
+    <row r="8" spans="1:20" ht="167.25">
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>28</v>
+      </c>
+      <c r="R8" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="76.5">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="12">
-        <v>4500</v>
-      </c>
-      <c r="J4" s="28" t="s">
+      <c r="H9" s="5">
+        <v>160</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="17"/>
+      <c r="O9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P9" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="19"/>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="E5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="6">
-        <v>27500</v>
-      </c>
-      <c r="J5" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-      <c r="P5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="E6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4225</v>
-      </c>
-      <c r="J6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="121.5">
-      <c r="E7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="27">
-        <v>0.6</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="167.25">
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15">
-        <v>2</v>
-      </c>
-      <c r="J8" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-      <c r="R8" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="76.5">
-      <c r="A9" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="7">
-        <v>160</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="19"/>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>127230</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1510000</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="3">
         <v>240</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="19"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="17"/>
       <c r="O10" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1909,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{10D2BFEC-E38C-4DF9-B837-A8388823FD91}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -1817,7 +1923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1860,177 +1966,177 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>12</v>
+      <c r="J1" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="167.25">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>6510</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="B2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="13">
         <v>924566</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>22</v>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="11" t="s">
-        <v>50</v>
+      <c r="H2" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="18"/>
+      <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="106.5">
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>29</v>
+      <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="18"/>
+      <c r="H3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="30.75">
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="10">
         <v>30</v>
       </c>
-      <c r="J4" s="20">
+      <c r="J4" s="18">
         <f>30*150</f>
         <v>4500</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>53</v>
+      <c r="K4" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="E5" s="15" t="s">
-        <v>54</v>
+      <c r="E5" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="4">
         <v>55</v>
       </c>
-      <c r="H5" s="6">
-        <v>55</v>
-      </c>
-      <c r="J5" s="20">
+      <c r="J5" s="18">
         <f>55*500</f>
         <v>27500</v>
       </c>
-      <c r="K5" s="19" t="s">
-        <v>56</v>
+      <c r="K5" s="17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="E6" s="15" t="s">
-        <v>57</v>
+      <c r="E6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="6">
+        <v>68</v>
+      </c>
+      <c r="H6" s="4">
         <v>169</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="18">
         <f>169*25</f>
         <v>4225</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="290.25">
-      <c r="E7" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="18"/>
+      <c r="E7" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="167.25">
-      <c r="E8" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="J8" s="18"/>
+      <c r="E8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="106.5">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="D9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="5">
         <v>8</v>
       </c>
-      <c r="J9" s="21">
+      <c r="J9" s="19">
         <f>8*20</f>
         <v>160</v>
       </c>
-      <c r="K9" s="19" t="s">
-        <v>63</v>
+      <c r="K9" s="17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="106.5">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>127230</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>46</v>
+      <c r="B10" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="D10">
         <v>1510000</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="19" t="s">
-        <v>68</v>
+      <c r="E10" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2040,7 +2146,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
@@ -2052,182 +2158,194 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="46"/>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="46"/>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="47"/>
-      <c r="B6" t="s">
+      <c r="B1" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="47"/>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="47"/>
-      <c r="B8" t="s">
+      <c r="B7" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="47"/>
-      <c r="B9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="48"/>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="49"/>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="49"/>
-      <c r="B14" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
+      <c r="B16" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="49" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Burkina Faso - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="323" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84DF391E-06A0-4E65-AD86-228F182020DF}"/>
+  <xr:revisionPtr revIDLastSave="325" documentId="11_404414F4C0F5DF2EDFC462D05D4E4B06780614A9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB7D5947-4242-43EF-A4A1-EE2E893BB567}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="114">
   <si>
     <t>Project ID</t>
   </si>
@@ -166,53 +166,53 @@
     <t>National</t>
   </si>
   <si>
+    <t>Projet tranfrontalier Burkina RCI-UNDP-BFA-00129636</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00134067</t>
+  </si>
+  <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Collaborate and Innovate-UNDP-BFA-00127230</t>
+  </si>
+  <si>
+    <t>https://open.undp.org/projects/00136271</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre de bénéficiaires directs ayant accès à une énergie propre, abordable et durable grâce aux mini réseaux, ventilé par sexe et par segment de clientèle (résidentiel) (nombre de personnes). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">augmentation de la capacité installée d'énergie renouvelable par technologie (mégawatt crête (MW)) </t>
+  </si>
+  <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nombre d'emplois primaires directs créés dans le secteur MG, ventilés par sexe, pour [le développement, l'exploitation et l'utilisation productive du mini réseau].  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre d'instruments de dérisque politique pour les investissements dans les mini réseaux - dont le développement a été soutenu par le projet - identifiés et approuvés par le gouvernement national.  </t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
     <t xml:space="preserve">141579
 </t>
-  </si>
-  <si>
-    <t>Projet tranfrontalier Burkina RCI-UNDP-BFA-00129636</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00134067</t>
-  </si>
-  <si>
-    <t>Non-VF</t>
-  </si>
-  <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Collaborate and Innovate-UNDP-BFA-00127230</t>
-  </si>
-  <si>
-    <t>https://open.undp.org/projects/00136271</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre de bénéficiaires directs ayant accès à une énergie propre, abordable et durable grâce aux mini réseaux, ventilé par sexe et par segment de clientèle (résidentiel) (nombre de personnes). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">augmentation de la capacité installée d'énergie renouvelable par technologie (mégawatt crête (MW)) </t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nombre d'emplois primaires directs créés dans le secteur MG, ventilés par sexe, pour [le développement, l'exploitation et l'utilisation productive du mini réseau].  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre d'instruments de dérisque politique pour les investissements dans les mini réseaux - dont le développement a été soutenu par le projet - identifiés et approuvés par le gouvernement national.  </t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
   </si>
   <si>
     <t xml:space="preserve"> 407 000 pour cette année 
@@ -1050,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B53FB9-5F2C-4AA7-958F-19B1C15DAACF}">
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1415,14 +1415,14 @@
       <c r="U8" s="47"/>
     </row>
     <row r="9" spans="1:21" ht="45.75">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="28">
+        <v>134067</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="C9" s="37" t="s">
         <v>43</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>44</v>
       </c>
       <c r="D9" s="28">
         <v>407000</v>
@@ -1441,11 +1441,11 @@
       <c r="J9" s="29"/>
       <c r="K9" s="36"/>
       <c r="L9" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="31"/>
       <c r="N9" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O9" s="31"/>
       <c r="P9" s="31"/>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="10" spans="1:21" ht="45.75">
       <c r="A10" s="28">
-        <v>127230</v>
+        <v>136271</v>
       </c>
       <c r="B10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="28">
         <v>1510000</v>
@@ -1482,11 +1482,11 @@
       <c r="J10" s="29"/>
       <c r="K10" s="36"/>
       <c r="L10" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M10" s="31"/>
       <c r="N10" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O10" s="31"/>
       <c r="P10" s="31"/>
@@ -1606,10 +1606,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="24" t="s">
         <v>49</v>
-      </c>
-      <c r="M1" s="24" t="s">
-        <v>50</v>
       </c>
       <c r="N1" s="24" t="s">
         <v>12</v>
@@ -1648,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="9">
@@ -1665,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
         <v>23</v>
@@ -1679,7 +1679,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1697,7 +1697,7 @@
         <v>27</v>
       </c>
       <c r="P3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1718,10 +1718,10 @@
         <v>26</v>
       </c>
       <c r="O4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1742,10 +1742,10 @@
         <v>26</v>
       </c>
       <c r="O5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1765,10 +1765,10 @@
         <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="121.5">
@@ -1776,7 +1776,7 @@
         <v>36</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>38</v>
@@ -1791,7 +1791,7 @@
         <v>26</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
@@ -1802,7 +1802,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="13">
         <v>2</v>
@@ -1814,7 +1814,7 @@
         <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8" t="s">
         <v>23</v>
@@ -1823,7 +1823,7 @@
         <v>28</v>
       </c>
       <c r="R8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S8" t="s">
         <v>23</v>
@@ -1831,10 +1831,10 @@
     </row>
     <row r="9" spans="1:20" ht="76.5">
       <c r="A9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>58</v>
@@ -1851,7 +1851,7 @@
       <c r="J9" s="22"/>
       <c r="K9" s="17"/>
       <c r="O9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
         <v>23</v>
@@ -1862,7 +1862,7 @@
         <v>127230</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>1510000</v>
@@ -1879,7 +1879,7 @@
       <c r="J10" s="23"/>
       <c r="K10" s="17"/>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
@@ -1967,7 +1967,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="167.25">
@@ -1987,7 +1987,7 @@
         <v>23</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="9" t="s">
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>69</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>70</v>
@@ -2079,7 +2079,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>71</v>
@@ -2088,10 +2088,10 @@
     </row>
     <row r="9" spans="1:11" ht="106.5">
       <c r="A9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>58</v>
@@ -2118,7 +2118,7 @@
         <v>127230</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>1510000</v>
@@ -2351,6 +2351,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2361,18 +2370,9 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2397,6 +2397,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2476,6 +2477,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2620,13 +2626,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64551BDE-F944-49F5-A367-13F8C123ECFA}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35954A88-8C57-42E5-B2F5-029E7B06C52D}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64551BDE-F944-49F5-A367-13F8C123ECFA}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CAA5807C-1759-4466-BE5D-09E4F9775765}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FE6A096-6791-48C4-991F-A912A9552F7E}"/>
 </file>